--- a/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6065,4 +6066,2112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>697.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.6031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>320.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19.0852</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>253.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.9573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>195.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.5149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>183.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.9039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>109.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7807</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5514</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5431</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0810</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9433</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9242</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8174,4 +8175,3780 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>928.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>39.0159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>298.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25.4124</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>542.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>23.8788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>226.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.9144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>153.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.1113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>142.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.4597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>135.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.3241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.0869</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.7327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.6157</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.8181</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.0602</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6580</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>213.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3892</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3372</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6701</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5372</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4979</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3367</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9880</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8756</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8053</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7832</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>37.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5133</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>54.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11951,4 +11952,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>173.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>102.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>131.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11960,7 +11961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11971,17 +11972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11991,14 +12012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173.92</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>776.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>27.2464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12007,14 +12050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>102.08</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>310.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>24.6561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -12023,14 +12088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>108.12</v>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>516.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>24.3996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12039,13 +12126,4139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>216.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.1884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.9667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>198.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.7224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.3076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0630</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6865</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9843</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7814</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>52.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4907</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4841</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4441</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3540</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2814</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7912</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7316</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7023</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6698</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6606</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>159.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>173.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>102.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>91</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>131.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16157,7 +16158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16168,17 +16169,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16188,14 +16209,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>159.09</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>688.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.5251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -16204,14 +16247,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>98</v>
-      </c>
-      <c r="D3" t="n">
-        <v>173.92</v>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>393.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.1361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -16220,14 +16285,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>102.08</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>237.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.4329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -16236,14 +16323,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>108.12</v>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>168.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.5547</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -16252,13 +16361,1991 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.3229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9533</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7390</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>102.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>91</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>131.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000596-古井贡酒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18228,7 +18229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18239,17 +18240,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18259,14 +18280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.8</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>685.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>29.2892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -18275,14 +18318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>159.09</v>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>452.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>24.9581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -18291,14 +18356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>98</v>
-      </c>
-      <c r="D4" t="n">
-        <v>173.92</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>300.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>21.9958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -18307,14 +18394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>102.08</v>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>195.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.4648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -18323,14 +18432,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>108.12</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.7387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -18339,13 +18470,6749 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>121.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7952</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.5484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1513</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9976</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8866</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6621</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5961</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4778</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1349</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0900</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>43.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7284</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6424</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5903</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华金城灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006541</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>南方成份精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>179</v>
+      </c>
+      <c r="D2" t="n">
+        <v>156.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>159.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>102.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>91</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>131.98</v>
       </c>
     </row>
